--- a/biology/Zoologie/Desognanops_humphreysi/Desognanops_humphreysi.xlsx
+++ b/biology/Zoologie/Desognanops_humphreysi/Desognanops_humphreysi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Desognanops humphreysi, unique représentant du genre Desognanops, est une espèce d'araignées aranéomorphes de la famille des Trachycosmidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Desognanops humphreysi, unique représentant du genre Desognanops, est une espèce d'araignées aranéomorphes de la famille des Trachycosmidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Mid West en Australie-Occidentale[1]. Elle se rencontre sous terre vers Millbillillie Station[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Mid West en Australie-Occidentale. Elle se rencontre sous terre vers Millbillillie Station.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 3,96 mm et la femelle paratype 4,42 mm[2]. Cette araignée est anophtalme.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 3,96 mm et la femelle paratype 4,42 mm. Cette araignée est anophtalme.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Platnick en 2008.
-Ce genre a été décrit par Platnick en 2008 dans les Trochanteriidae. Il est placé dans les Trachycosmidae par Azevedo, Bougie, Carboni, Hedin et Ramírez en 2022[3].
+Ce genre a été décrit par Platnick en 2008 dans les Trochanteriidae. Il est placé dans les Trachycosmidae par Azevedo, Bougie, Carboni, Hedin et Ramírez en 2022.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de William Frank Humphreys[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de William Frank Humphreys.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Platnick, 2008 : « A new subterranean ground spider genus from Western Australia (Araneae: Trochanteriidae). » Invertebrate Systematics, vol. 22, p. 295-299.</t>
         </is>
